--- a/data/processed/weight_development.xlsx
+++ b/data/processed/weight_development.xlsx
@@ -1,163 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdt/Documents/GitHub/2022_matrinem_thesis/data/processed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBE316-315B-554D-B443-A0B4041FB969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="22400" yWindow="500" windowWidth="22400" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">sample_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">received_antibiotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maternal_treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_of_feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bodyweight_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bodyweight_baseline_plus_24h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bodyweight_baseline_plus_48h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bodyweight_birthday_group_average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bodyweight_birthday_plus_24H_group_average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bodyweight_birthday_plus_48H_group_average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON-FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water+Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed during experiment, sampled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB-FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix+Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB-BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix+Breastmilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON-BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water+Breastmilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killed during experiment, not sampled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCO-BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanco+Breastmilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENTA-BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genta+Breastmilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCO-FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vancomycin+Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENTA-FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gentamycin +Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vancomycin+Breastfeeding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gentamycin +Breastfeeding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water+Breastfeeding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FVT-FORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-FORM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="48">
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>exp_number</t>
+  </si>
+  <si>
+    <t>received_antibiotics</t>
+  </si>
+  <si>
+    <t>group2</t>
+  </si>
+  <si>
+    <t>maternal_treatment</t>
+  </si>
+  <si>
+    <t>type_of_feed</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>cage</t>
+  </si>
+  <si>
+    <t>bodyweight_baseline</t>
+  </si>
+  <si>
+    <t>bodyweight_baseline_plus_24h</t>
+  </si>
+  <si>
+    <t>bodyweight_baseline_plus_48h</t>
+  </si>
+  <si>
+    <t>bodyweight_birthday_group_average</t>
+  </si>
+  <si>
+    <t>bodyweight_birthday_plus_24H_group_average</t>
+  </si>
+  <si>
+    <t>bodyweight_birthday_plus_48H_group_average</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CON-FF</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Water+Formula</t>
+  </si>
+  <si>
+    <t>killed during experiment, sampled</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AB-FF</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Mix+Formula</t>
+  </si>
+  <si>
+    <t>AB-BF</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Mix+Breastmilk</t>
+  </si>
+  <si>
+    <t>CON-BF</t>
+  </si>
+  <si>
+    <t>Water+Breastmilk</t>
+  </si>
+  <si>
+    <t>killed during experiment, not sampled</t>
+  </si>
+  <si>
+    <t>VANCO-BF</t>
+  </si>
+  <si>
+    <t>VANCO</t>
+  </si>
+  <si>
+    <t>Vanco+Breastmilk</t>
+  </si>
+  <si>
+    <t>GENTA-BF</t>
+  </si>
+  <si>
+    <t>GENTA</t>
+  </si>
+  <si>
+    <t>Genta+Breastmilk</t>
+  </si>
+  <si>
+    <t>VANCO-FF</t>
+  </si>
+  <si>
+    <t>Vancomycin+Formula</t>
+  </si>
+  <si>
+    <t>GENTA-FF</t>
+  </si>
+  <si>
+    <t>Gentamycin +Formula</t>
+  </si>
+  <si>
+    <t>Vancomycin+Breastfeeding</t>
+  </si>
+  <si>
+    <t>Gentamycin +Breastfeeding</t>
+  </si>
+  <si>
+    <t>Water+Breastfeeding</t>
+  </si>
+  <si>
+    <t>FVT-FORM</t>
+  </si>
+  <si>
+    <t>SM-FORM</t>
+  </si>
+  <si>
+    <t>VANCO-FVF</t>
+  </si>
+  <si>
+    <t>VANCO-SM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,6 +206,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,14 +496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,11 +552,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -550,28 +574,24 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>22</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>2.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>2.5</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
       <c r="O2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -589,28 +609,24 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1.9</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
       <c r="O3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -628,28 +644,24 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>34</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>2.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>2.4</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
       <c r="O4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -667,28 +679,24 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>22</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>2.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>2.6</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>2.7</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -706,28 +714,24 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>34</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="I6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K6">
         <v>2.4</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -745,28 +749,24 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>1.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>2.1</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -784,28 +784,24 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>2.4</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K8">
         <v>2.6</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -823,28 +819,24 @@
       <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>1.6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1.8</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -862,28 +854,24 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="I10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K10">
         <v>2.7</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -901,28 +889,24 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>14</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1.9</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>1.9</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>2.1</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -940,28 +924,24 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>14</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>1.9</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>1.9</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="K12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -979,28 +959,24 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="I13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K13">
         <v>2.4</v>
       </c>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -1018,28 +994,24 @@
       <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="I14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K14">
         <v>2.4</v>
       </c>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
@@ -1057,28 +1029,24 @@
       <c r="G15" t="s">
         <v>24</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>2.1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="K15">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -1096,28 +1064,24 @@
       <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="I16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K16">
         <v>2.6</v>
       </c>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
@@ -1135,28 +1099,24 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>2.5</v>
       </c>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
@@ -1174,26 +1134,21 @@
       <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>2.5</v>
       </c>
-      <c r="J18"/>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>3.7</v>
       </c>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -1211,26 +1166,21 @@
       <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>8</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>2.5</v>
       </c>
-      <c r="J19"/>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>3.5</v>
       </c>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -1248,26 +1198,21 @@
       <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>10</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>2.4</v>
       </c>
-      <c r="J20"/>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>3.8</v>
       </c>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -1285,26 +1230,21 @@
       <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>10</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="J21"/>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>3.5</v>
       </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1322,26 +1262,21 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="J22"/>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>3.3</v>
       </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -1359,26 +1294,21 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>14</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>1.6</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>2.5</v>
       </c>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1396,26 +1326,21 @@
       <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>14</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>1.8</v>
       </c>
-      <c r="J24"/>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>2.8</v>
       </c>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1433,26 +1358,21 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>14</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>1.9</v>
       </c>
-      <c r="J25"/>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1470,26 +1390,21 @@
       <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>22</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26" t="n">
+      <c r="I26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K26">
         <v>3.2</v>
       </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -1507,26 +1422,21 @@
       <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>22</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>2.7</v>
       </c>
-      <c r="J27"/>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>3.9</v>
       </c>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -1544,26 +1454,21 @@
       <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>30</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>1.9</v>
       </c>
-      <c r="J28"/>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>2.9</v>
       </c>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -1581,26 +1486,21 @@
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>30</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>1.9</v>
       </c>
-      <c r="J29"/>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -1618,26 +1518,21 @@
       <c r="G30" t="s">
         <v>29</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>30</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30"/>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>3.2</v>
       </c>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -1655,26 +1550,21 @@
       <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>34</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>2.4</v>
       </c>
-      <c r="J31"/>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>3.5</v>
       </c>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -1692,26 +1582,21 @@
       <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>34</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>2.5</v>
       </c>
-      <c r="J32"/>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>3.6</v>
       </c>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -1729,26 +1614,21 @@
       <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>34</v>
       </c>
-      <c r="I33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33" t="n">
+      <c r="I33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K33">
         <v>3.4</v>
       </c>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>9001</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -1766,26 +1646,21 @@
       <c r="G34" t="s">
         <v>24</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>14</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>1.9</v>
       </c>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
       <c r="O34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>9002</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -1803,26 +1678,21 @@
       <c r="G35" t="s">
         <v>19</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>34</v>
       </c>
-      <c r="I35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="I35">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="O35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>9003</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -1840,26 +1710,21 @@
       <c r="G36" t="s">
         <v>19</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>22</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>2.5</v>
       </c>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
       <c r="O36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>9004</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -1877,26 +1742,21 @@
       <c r="G37" t="s">
         <v>19</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>30</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>2</v>
       </c>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
       <c r="O37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>9005</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -1914,28 +1774,24 @@
       <c r="G38" t="s">
         <v>19</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>30</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>2.1</v>
       </c>
-      <c r="J38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="J38">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="O38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>9006</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -1953,28 +1809,24 @@
       <c r="G39" t="s">
         <v>19</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>30</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>2</v>
       </c>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
       <c r="O39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>33</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
@@ -1992,34 +1844,33 @@
       <c r="G40" t="s">
         <v>33</v>
       </c>
-      <c r="H40" t="n">
-        <v>18</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
         <v>1.9</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>2.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>3.1</v>
       </c>
-      <c r="L40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M40">
         <v>1.2</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>1.6</v>
       </c>
-      <c r="O40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>34</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
@@ -2037,34 +1888,33 @@
       <c r="G41" t="s">
         <v>33</v>
       </c>
-      <c r="H41" t="n">
-        <v>18</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41">
+        <v>18</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>2.7</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>3.4</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>1.3</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>1.4</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>1.6</v>
       </c>
-      <c r="O41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>35</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -2082,34 +1932,33 @@
       <c r="G42" t="s">
         <v>33</v>
       </c>
-      <c r="H42" t="n">
-        <v>18</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="I42">
         <v>2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>2.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>3.1</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>1.2</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>1.3</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>1.6</v>
       </c>
-      <c r="O42"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>36</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
@@ -2127,34 +1976,33 @@
       <c r="G43" t="s">
         <v>33</v>
       </c>
-      <c r="H43" t="n">
-        <v>18</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="H43">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J43">
         <v>2.9</v>
       </c>
-      <c r="K43" t="n">
-        <v>3</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
         <v>1.5</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>1.6</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>1.9</v>
       </c>
-      <c r="O43"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>37</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
@@ -2172,34 +2020,33 @@
       <c r="G44" t="s">
         <v>33</v>
       </c>
-      <c r="H44" t="n">
-        <v>18</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="H44">
+        <v>18</v>
+      </c>
+      <c r="I44">
         <v>2.1</v>
       </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
         <v>3.3</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>1.4</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>1.4</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>1.6</v>
       </c>
-      <c r="O44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>38</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
@@ -2217,34 +2064,33 @@
       <c r="G45" t="s">
         <v>33</v>
       </c>
-      <c r="H45" t="n">
-        <v>18</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="H45">
+        <v>18</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>2.8</v>
       </c>
-      <c r="K45" t="n">
-        <v>3</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
         <v>1.2</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>1.4</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>1.6</v>
       </c>
-      <c r="O45"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>39</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
@@ -2262,34 +2108,33 @@
       <c r="G46" t="s">
         <v>33</v>
       </c>
-      <c r="H46" t="n">
-        <v>18</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="H46">
+        <v>18</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>2.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>3.1</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>1.3</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>1.4</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>1.6</v>
       </c>
-      <c r="O46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>40</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
@@ -2307,34 +2152,33 @@
       <c r="G47" t="s">
         <v>36</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>36</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>1.9</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>2.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>3.2</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>1.3</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>1.4</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>1.6</v>
       </c>
-      <c r="O47"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>41</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
@@ -2352,34 +2196,33 @@
       <c r="G48" t="s">
         <v>36</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>36</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>1.9</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>2.7</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>3.1</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>1.3</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>1.4</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>1.6</v>
       </c>
-      <c r="O48"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>42</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
@@ -2397,34 +2240,33 @@
       <c r="G49" t="s">
         <v>36</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>36</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>1.9</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>2.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>3.2</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>1.3</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>1.4</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>1.6</v>
       </c>
-      <c r="O49"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>43</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
@@ -2442,34 +2284,33 @@
       <c r="G50" t="s">
         <v>36</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>36</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>1.9</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>2.7</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>3.1</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>1.3</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>1.4</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>1.6</v>
       </c>
-      <c r="O50"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>44</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
@@ -2487,34 +2328,33 @@
       <c r="G51" t="s">
         <v>36</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>36</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>1.9</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>2.7</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>3.4</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>1.4</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>1.4</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>1.6</v>
       </c>
-      <c r="O51"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" t="s">
@@ -2532,34 +2372,33 @@
       <c r="G52" t="s">
         <v>36</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>36</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>1.9</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>2.7</v>
       </c>
-      <c r="K52" t="n">
-        <v>3</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
         <v>1.2</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>1.4</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>1.6</v>
       </c>
-      <c r="O52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>46</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
@@ -2577,34 +2416,33 @@
       <c r="G53" t="s">
         <v>36</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>36</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>1.9</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>2.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>3.1</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>1.3</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>1.4</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>1.6</v>
       </c>
-      <c r="O53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>47</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
@@ -2622,34 +2460,33 @@
       <c r="G54" t="s">
         <v>29</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>24</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>2.1</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>2.6</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>3.1</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>1.5</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>1.5</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>1.7</v>
       </c>
-      <c r="O54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>48</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
@@ -2667,34 +2504,33 @@
       <c r="G55" t="s">
         <v>29</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>24</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>2.1</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>2.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>3.2</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>1.5</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>1.5</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>1.7</v>
       </c>
-      <c r="O55"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>49</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
@@ -2712,34 +2548,33 @@
       <c r="G56" t="s">
         <v>29</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>24</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>2.1</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>2.8</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>3.3</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>1.6</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>1.6</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>1.7</v>
       </c>
-      <c r="O56"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>50</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
@@ -2757,26 +2592,21 @@
       <c r="G57" t="s">
         <v>38</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>6</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>2.6</v>
       </c>
-      <c r="J57"/>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>2.9</v>
       </c>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>51</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
@@ -2794,26 +2624,21 @@
       <c r="G58" t="s">
         <v>38</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>6</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>2.5</v>
       </c>
-      <c r="J58"/>
-      <c r="K58" t="n">
-        <v>3</v>
-      </c>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+      <c r="K58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>52</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
@@ -2831,26 +2656,21 @@
       <c r="G59" t="s">
         <v>38</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>6</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>2.8</v>
       </c>
-      <c r="J59"/>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>2.8</v>
       </c>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>53</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
@@ -2868,26 +2688,21 @@
       <c r="G60" t="s">
         <v>38</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>6</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>2.7</v>
       </c>
-      <c r="J60"/>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>2.9</v>
       </c>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>54</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
@@ -2905,26 +2720,21 @@
       <c r="G61" t="s">
         <v>38</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>6</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>2.7</v>
       </c>
-      <c r="J61"/>
-      <c r="K61" t="n">
-        <v>3</v>
-      </c>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="K61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>55</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
@@ -2942,26 +2752,21 @@
       <c r="G62" t="s">
         <v>40</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>32</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>1.9</v>
       </c>
-      <c r="J62"/>
-      <c r="K62" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="K62">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>56</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
@@ -2979,26 +2784,21 @@
       <c r="G63" t="s">
         <v>40</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>32</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="J63"/>
-      <c r="K63" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+      <c r="K63">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>57</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" t="s">
@@ -3016,26 +2816,21 @@
       <c r="G64" t="s">
         <v>40</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>32</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>1.8</v>
       </c>
-      <c r="J64"/>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>2.1</v>
       </c>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>58</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" t="s">
@@ -3053,26 +2848,21 @@
       <c r="G65" t="s">
         <v>40</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>32</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>1.6</v>
       </c>
-      <c r="J65"/>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>1.9</v>
       </c>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>59</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
@@ -3090,26 +2880,21 @@
       <c r="G66" t="s">
         <v>40</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>14</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>2.9</v>
       </c>
-      <c r="J66"/>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>3.1</v>
       </c>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>60</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
@@ -3127,26 +2912,21 @@
       <c r="G67" t="s">
         <v>40</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>14</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>2.8</v>
       </c>
-      <c r="J67"/>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>3.2</v>
       </c>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>61</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
@@ -3164,26 +2944,21 @@
       <c r="G68" t="s">
         <v>40</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>14</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>2.8</v>
       </c>
-      <c r="J68"/>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>3.1</v>
       </c>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>62</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
@@ -3201,26 +2976,21 @@
       <c r="G69" t="s">
         <v>40</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>20</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>2.6</v>
       </c>
-      <c r="J69"/>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>2.9</v>
       </c>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>63</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
@@ -3238,26 +3008,21 @@
       <c r="G70" t="s">
         <v>19</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>44</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>2.9</v>
       </c>
-      <c r="J70"/>
-      <c r="K70" t="n">
-        <v>3</v>
-      </c>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
+      <c r="K70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>64</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
@@ -3275,26 +3040,21 @@
       <c r="G71" t="s">
         <v>19</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>44</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>2.9</v>
       </c>
-      <c r="J71"/>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>3.1</v>
       </c>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>65</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" t="s">
@@ -3312,26 +3072,21 @@
       <c r="G72" t="s">
         <v>19</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>44</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>2.9</v>
       </c>
-      <c r="J72"/>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>3.1</v>
       </c>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>66</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
@@ -3349,26 +3104,21 @@
       <c r="G73" t="s">
         <v>19</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>44</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>2.9</v>
       </c>
-      <c r="J73"/>
-      <c r="K73" t="n">
-        <v>3</v>
-      </c>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
+      <c r="K73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>67</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
@@ -3386,26 +3136,21 @@
       <c r="G74" t="s">
         <v>19</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>4</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>2.6</v>
       </c>
-      <c r="J74"/>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>2.8</v>
       </c>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>68</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
@@ -3423,26 +3168,21 @@
       <c r="G75" t="s">
         <v>19</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>4</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>2.9</v>
       </c>
-      <c r="J75"/>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>3.1</v>
       </c>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>69</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
@@ -3460,26 +3200,21 @@
       <c r="G76" t="s">
         <v>19</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>4</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>2.8</v>
       </c>
-      <c r="J76"/>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>3.1</v>
       </c>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>70</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>3</v>
       </c>
       <c r="C77" t="s">
@@ -3497,26 +3232,21 @@
       <c r="G77" t="s">
         <v>19</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>4</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>2.6</v>
       </c>
-      <c r="J77"/>
-      <c r="K77" t="n">
-        <v>3</v>
-      </c>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="K77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>71</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
@@ -3534,26 +3264,21 @@
       <c r="G78" t="s">
         <v>19</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>50</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>2.9</v>
       </c>
-      <c r="J78"/>
-      <c r="K78" t="n">
-        <v>3</v>
-      </c>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="K78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>72</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
@@ -3571,26 +3296,21 @@
       <c r="G79" t="s">
         <v>19</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>50</v>
       </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79"/>
-      <c r="K79" t="n">
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="K79">
         <v>3.2</v>
       </c>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>73</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
@@ -3608,26 +3328,21 @@
       <c r="G80" t="s">
         <v>41</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>6</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>2.4</v>
       </c>
-      <c r="J80"/>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>3.3</v>
       </c>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>74</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>3</v>
       </c>
       <c r="C81" t="s">
@@ -3645,26 +3360,21 @@
       <c r="G81" t="s">
         <v>42</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>32</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>1.8</v>
       </c>
-      <c r="J81"/>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>3.4</v>
       </c>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>75</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>3</v>
       </c>
       <c r="C82" t="s">
@@ -3682,26 +3392,21 @@
       <c r="G82" t="s">
         <v>42</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>32</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>1.8</v>
       </c>
-      <c r="J82"/>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>3.6</v>
       </c>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>76</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" t="s">
@@ -3719,26 +3424,21 @@
       <c r="G83" t="s">
         <v>42</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>20</v>
       </c>
-      <c r="I83" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83" t="n">
+      <c r="I83">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K83">
         <v>3.1</v>
       </c>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>77</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>3</v>
       </c>
       <c r="C84" t="s">
@@ -3756,26 +3456,21 @@
       <c r="G84" t="s">
         <v>42</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>20</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>2.6</v>
       </c>
-      <c r="J84"/>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>3.1</v>
       </c>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>79</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>3</v>
       </c>
       <c r="C85" t="s">
@@ -3793,26 +3488,21 @@
       <c r="G85" t="s">
         <v>43</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>4</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>2.4</v>
       </c>
-      <c r="J85"/>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>3.8</v>
       </c>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>80</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
@@ -3830,26 +3520,21 @@
       <c r="G86" t="s">
         <v>43</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>50</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>2.7</v>
       </c>
-      <c r="J86"/>
-      <c r="K86" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+      <c r="K86">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>81</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>3</v>
       </c>
       <c r="C87" t="s">
@@ -3867,26 +3552,21 @@
       <c r="G87" t="s">
         <v>43</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>50</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>2.8</v>
       </c>
-      <c r="J87"/>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>3.8</v>
       </c>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>82</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
@@ -3904,26 +3584,21 @@
       <c r="G88" t="s">
         <v>43</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>50</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>2.7</v>
       </c>
-      <c r="J88"/>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>3.2</v>
       </c>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>83</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
@@ -3941,26 +3616,21 @@
       <c r="G89" t="s">
         <v>43</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>50</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>2.7</v>
       </c>
-      <c r="J89"/>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>4.2</v>
       </c>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>84</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
@@ -3978,26 +3648,21 @@
       <c r="G90" t="s">
         <v>43</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>50</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>2.5</v>
       </c>
-      <c r="J90"/>
-      <c r="K90" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+      <c r="K90">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>85</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>3</v>
       </c>
       <c r="C91" t="s">
@@ -4015,26 +3680,21 @@
       <c r="G91" t="s">
         <v>43</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>50</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>2.8</v>
       </c>
-      <c r="J91"/>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>3.9</v>
       </c>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>86</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
@@ -4052,26 +3712,21 @@
       <c r="G92" t="s">
         <v>43</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>50</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>2.9</v>
       </c>
-      <c r="J92"/>
-      <c r="K92" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
+      <c r="K92">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>87</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
@@ -4089,26 +3744,21 @@
       <c r="G93" t="s">
         <v>43</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>50</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>2.7</v>
       </c>
-      <c r="J93"/>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>3.7</v>
       </c>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>88</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>3</v>
       </c>
       <c r="C94" t="s">
@@ -4126,33 +3776,28 @@
       <c r="G94" t="s">
         <v>43</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>50</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>2.6</v>
       </c>
-      <c r="J94"/>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>4</v>
       </c>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>89</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E95" t="s">
         <v>32</v>
@@ -4163,33 +3808,28 @@
       <c r="G95" t="s">
         <v>44</v>
       </c>
-      <c r="H95"/>
-      <c r="I95" t="n">
-        <v>3.23333333333333</v>
-      </c>
-      <c r="J95" t="n">
+      <c r="I95">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="J95">
         <v>3.7</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>3.5</v>
       </c>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="O95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>90</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E96" t="s">
         <v>32</v>
@@ -4200,33 +3840,28 @@
       <c r="G96" t="s">
         <v>44</v>
       </c>
-      <c r="H96"/>
-      <c r="I96" t="n">
-        <v>3.23333333333333</v>
-      </c>
-      <c r="J96" t="n">
+      <c r="I96">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="J96">
         <v>3.4</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>3.2</v>
       </c>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>91</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>4</v>
       </c>
       <c r="C97" t="s">
         <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
@@ -4237,35 +3872,31 @@
       <c r="G97" t="s">
         <v>44</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>58</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>2.85</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>3.6</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>3.3</v>
       </c>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>92</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E98" t="s">
         <v>32</v>
@@ -4276,35 +3907,31 @@
       <c r="G98" t="s">
         <v>44</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>58</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>2.56</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>3.2</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>3.2</v>
       </c>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>93</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E99" t="s">
         <v>32</v>
@@ -4315,35 +3942,31 @@
       <c r="G99" t="s">
         <v>44</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>48</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>2.56</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>3.2</v>
       </c>
-      <c r="K99" t="n">
-        <v>3</v>
-      </c>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+      <c r="K99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>94</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>4</v>
       </c>
       <c r="C100" t="s">
         <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
         <v>32</v>
@@ -4354,35 +3977,31 @@
       <c r="G100" t="s">
         <v>44</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>48</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>2.56</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>2.9</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>2.7</v>
       </c>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>95</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>4</v>
       </c>
       <c r="C101" t="s">
         <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E101" t="s">
         <v>32</v>
@@ -4393,35 +4012,31 @@
       <c r="G101" t="s">
         <v>44</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>48</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>2.56</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>2.9</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>2.7</v>
       </c>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>96</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>4</v>
       </c>
       <c r="C102" t="s">
         <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E102" t="s">
         <v>32</v>
@@ -4432,35 +4047,31 @@
       <c r="G102" t="s">
         <v>44</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>34</v>
       </c>
-      <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
         <v>3.7</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>3.4</v>
       </c>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>97</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>4</v>
       </c>
       <c r="C103" t="s">
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E103" t="s">
         <v>32</v>
@@ -4471,35 +4082,31 @@
       <c r="G103" t="s">
         <v>44</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>34</v>
       </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
         <v>3.4</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>3.2</v>
       </c>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
-      <c r="O103"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>98</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>4</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
         <v>32</v>
@@ -4510,33 +4117,28 @@
       <c r="G104" t="s">
         <v>45</v>
       </c>
-      <c r="H104"/>
-      <c r="I104" t="n">
-        <v>3.23333333333333</v>
-      </c>
-      <c r="J104" t="n">
+      <c r="I104">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="J104">
         <v>3.8</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>3.6</v>
       </c>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>99</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E105" t="s">
         <v>32</v>
@@ -4547,35 +4149,31 @@
       <c r="G105" t="s">
         <v>45</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>58</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>2.85</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>3.2</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>3.2</v>
       </c>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>100</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>4</v>
       </c>
       <c r="C106" t="s">
         <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E106" t="s">
         <v>32</v>
@@ -4586,35 +4184,31 @@
       <c r="G106" t="s">
         <v>45</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>58</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>2.85</v>
       </c>
-      <c r="J106" t="n">
-        <v>3</v>
-      </c>
-      <c r="K106" t="n">
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
         <v>2.8</v>
       </c>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>101</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>4</v>
       </c>
       <c r="C107" t="s">
         <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
         <v>32</v>
@@ -4625,35 +4219,31 @@
       <c r="G107" t="s">
         <v>45</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>48</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>2.56</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>3.1</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>2.9</v>
       </c>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>102</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>4</v>
       </c>
       <c r="C108" t="s">
         <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E108" t="s">
         <v>32</v>
@@ -4664,35 +4254,31 @@
       <c r="G108" t="s">
         <v>45</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>48</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>2.56</v>
       </c>
-      <c r="J108" t="n">
-        <v>3</v>
-      </c>
-      <c r="K108" t="n">
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
         <v>2.8</v>
       </c>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>103</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>4</v>
       </c>
       <c r="C109" t="s">
         <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E109" t="s">
         <v>32</v>
@@ -4703,35 +4289,31 @@
       <c r="G109" t="s">
         <v>45</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>34</v>
       </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
-      <c r="J109" t="n">
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
         <v>3.5</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>3.3</v>
       </c>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>104</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>4</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E110" t="s">
         <v>32</v>
@@ -4742,35 +4324,31 @@
       <c r="G110" t="s">
         <v>45</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>34</v>
       </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3</v>
-      </c>
-      <c r="K110" t="n">
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+      <c r="K110">
         <v>2.8</v>
       </c>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>105</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>4</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E111" t="s">
         <v>32</v>
@@ -4781,28 +4359,24 @@
       <c r="G111" t="s">
         <v>45</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>34</v>
       </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
         <v>3.4</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>3.4</v>
       </c>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>106</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
@@ -4820,26 +4394,21 @@
       <c r="G112" t="s">
         <v>28</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>34</v>
       </c>
-      <c r="I112" t="n">
-        <v>3.23333333333333</v>
-      </c>
-      <c r="J112"/>
-      <c r="K112" t="n">
+      <c r="I112">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="K112">
         <v>4.5</v>
       </c>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>107</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="s">
@@ -4857,26 +4426,21 @@
       <c r="G113" t="s">
         <v>28</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>34</v>
       </c>
-      <c r="I113" t="n">
-        <v>3.23333333333333</v>
-      </c>
-      <c r="J113"/>
-      <c r="K113" t="n">
+      <c r="I113">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="K113">
         <v>3.7</v>
       </c>
-      <c r="L113"/>
-      <c r="M113"/>
-      <c r="N113"/>
-      <c r="O113"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>108</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>4</v>
       </c>
       <c r="C114" t="s">
@@ -4894,26 +4458,21 @@
       <c r="G114" t="s">
         <v>28</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>12</v>
       </c>
-      <c r="I114" t="n">
-        <v>3</v>
-      </c>
-      <c r="J114"/>
-      <c r="K114" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="K114">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>109</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>4</v>
       </c>
       <c r="C115" t="s">
@@ -4931,26 +4490,21 @@
       <c r="G115" t="s">
         <v>28</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>12</v>
       </c>
-      <c r="I115" t="n">
-        <v>3</v>
-      </c>
-      <c r="J115"/>
-      <c r="K115" t="n">
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="K115">
         <v>4.8</v>
       </c>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>110</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>4</v>
       </c>
       <c r="C116" t="s">
@@ -4968,26 +4522,21 @@
       <c r="G116" t="s">
         <v>28</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>48</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>2.56</v>
       </c>
-      <c r="J116"/>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>3.5</v>
       </c>
-      <c r="L116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>111</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>4</v>
       </c>
       <c r="C117" t="s">
@@ -5005,26 +4554,21 @@
       <c r="G117" t="s">
         <v>28</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>48</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>2.56</v>
       </c>
-      <c r="J117"/>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>3.4</v>
       </c>
-      <c r="L117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>112</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>4</v>
       </c>
       <c r="C118" t="s">
@@ -5042,26 +4586,21 @@
       <c r="G118" t="s">
         <v>28</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>58</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>2.85</v>
       </c>
-      <c r="J118"/>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>4.3</v>
       </c>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>113</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>4</v>
       </c>
       <c r="C119" t="s">
@@ -5079,26 +4618,21 @@
       <c r="G119" t="s">
         <v>28</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>58</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>2.85</v>
       </c>
-      <c r="J119"/>
-      <c r="K119" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L119"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
+      <c r="K119">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>114</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>4</v>
       </c>
       <c r="C120" t="s">
@@ -5116,23 +4650,18 @@
       <c r="G120" t="s">
         <v>28</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>58</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>2.9</v>
       </c>
-      <c r="J120"/>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>4.3</v>
       </c>
-      <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>